--- a/RESULTS/SET 1 [0..5] Single/080.0%/BE.xlsx
+++ b/RESULTS/SET 1 [0..5] Single/080.0%/BE.xlsx
@@ -17,9 +17,6 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="7" sheetId="9" state="visible" r:id="rId9"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="6" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="90">
   <si>
     <t>Feature index</t>
   </si>
@@ -89,34 +86,196 @@
     <t>Mallow Test</t>
   </si>
   <si>
+    <t>010155</t>
+  </si>
+  <si>
+    <t>O-H</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>001101</t>
+  </si>
+  <si>
+    <t>010055</t>
+  </si>
+  <si>
+    <t>O-O</t>
+  </si>
+  <si>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>011155</t>
+  </si>
+  <si>
+    <t>H-H</t>
+  </si>
+  <si>
+    <t>001111</t>
+  </si>
+  <si>
+    <t>060055</t>
+  </si>
+  <si>
+    <t>006100</t>
+  </si>
+  <si>
+    <t>050155</t>
+  </si>
+  <si>
+    <t>005101</t>
+  </si>
+  <si>
+    <t>020155</t>
+  </si>
+  <si>
+    <t>002101</t>
+  </si>
+  <si>
+    <t>070155</t>
+  </si>
+  <si>
+    <t>007101</t>
+  </si>
+  <si>
+    <t>121155</t>
+  </si>
+  <si>
+    <t>012111</t>
+  </si>
+  <si>
+    <t>131155</t>
+  </si>
+  <si>
+    <t>013111</t>
+  </si>
+  <si>
+    <t>111155</t>
+  </si>
+  <si>
+    <t>011111</t>
+  </si>
+  <si>
+    <t>141155</t>
+  </si>
+  <si>
+    <t>014111</t>
+  </si>
+  <si>
+    <t>030055</t>
+  </si>
+  <si>
+    <t>003100</t>
+  </si>
+  <si>
+    <t>091155</t>
+  </si>
+  <si>
+    <t>009111</t>
+  </si>
+  <si>
     <t>041155</t>
   </si>
   <si>
-    <t>H-H</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>004111</t>
   </si>
   <si>
+    <t>100155</t>
+  </si>
+  <si>
+    <t>010101</t>
+  </si>
+  <si>
+    <t>020055</t>
+  </si>
+  <si>
+    <t>002100</t>
+  </si>
+  <si>
+    <t>050055</t>
+  </si>
+  <si>
+    <t>005100</t>
+  </si>
+  <si>
+    <t>101155</t>
+  </si>
+  <si>
+    <t>010111</t>
+  </si>
+  <si>
+    <t>151155</t>
+  </si>
+  <si>
+    <t>015111</t>
+  </si>
+  <si>
+    <t>060155</t>
+  </si>
+  <si>
+    <t>006101</t>
+  </si>
+  <si>
+    <t>031155</t>
+  </si>
+  <si>
+    <t>003111</t>
+  </si>
+  <si>
+    <t>040155</t>
+  </si>
+  <si>
+    <t>004101</t>
+  </si>
+  <si>
     <t>040055</t>
   </si>
   <si>
-    <t>O-O</t>
-  </si>
-  <si>
     <t>004100</t>
   </si>
   <si>
-    <t>010155</t>
-  </si>
-  <si>
-    <t>O-H</t>
-  </si>
-  <si>
-    <t>001101</t>
+    <t>021155</t>
+  </si>
+  <si>
+    <t>002111</t>
+  </si>
+  <si>
+    <t>130155</t>
+  </si>
+  <si>
+    <t>013101</t>
+  </si>
+  <si>
+    <t>120055</t>
+  </si>
+  <si>
+    <t>012100</t>
+  </si>
+  <si>
+    <t>140055</t>
+  </si>
+  <si>
+    <t>014100</t>
+  </si>
+  <si>
+    <t>120155</t>
+  </si>
+  <si>
+    <t>012101</t>
+  </si>
+  <si>
+    <t>150055</t>
+  </si>
+  <si>
+    <t>015100</t>
+  </si>
+  <si>
+    <t>070055</t>
+  </si>
+  <si>
+    <t>007100</t>
   </si>
   <si>
     <t>051155</t>
@@ -125,196 +284,16 @@
     <t>005111</t>
   </si>
   <si>
-    <t>010055</t>
-  </si>
-  <si>
-    <t>001100</t>
-  </si>
-  <si>
     <t>081155</t>
   </si>
   <si>
     <t>008111</t>
   </si>
   <si>
-    <t>020055</t>
-  </si>
-  <si>
-    <t>002100</t>
-  </si>
-  <si>
-    <t>091155</t>
-  </si>
-  <si>
-    <t>009111</t>
-  </si>
-  <si>
-    <t>101155</t>
-  </si>
-  <si>
-    <t>010111</t>
-  </si>
-  <si>
-    <t>131155</t>
-  </si>
-  <si>
-    <t>013111</t>
-  </si>
-  <si>
-    <t>151155</t>
-  </si>
-  <si>
-    <t>015111</t>
-  </si>
-  <si>
-    <t>040155</t>
-  </si>
-  <si>
-    <t>004101</t>
-  </si>
-  <si>
-    <t>030155</t>
-  </si>
-  <si>
-    <t>003101</t>
-  </si>
-  <si>
-    <t>070155</t>
-  </si>
-  <si>
-    <t>007101</t>
-  </si>
-  <si>
-    <t>090155</t>
-  </si>
-  <si>
-    <t>009101</t>
-  </si>
-  <si>
-    <t>021155</t>
-  </si>
-  <si>
-    <t>002111</t>
-  </si>
-  <si>
-    <t>050055</t>
-  </si>
-  <si>
-    <t>005100</t>
-  </si>
-  <si>
-    <t>050155</t>
-  </si>
-  <si>
-    <t>005101</t>
-  </si>
-  <si>
-    <t>111155</t>
-  </si>
-  <si>
-    <t>011111</t>
-  </si>
-  <si>
-    <t>121155</t>
-  </si>
-  <si>
-    <t>012111</t>
-  </si>
-  <si>
-    <t>080055</t>
-  </si>
-  <si>
-    <t>008100</t>
-  </si>
-  <si>
-    <t>061155</t>
-  </si>
-  <si>
-    <t>006111</t>
-  </si>
-  <si>
-    <t>141155</t>
-  </si>
-  <si>
-    <t>014111</t>
-  </si>
-  <si>
-    <t>080155</t>
-  </si>
-  <si>
-    <t>008101</t>
-  </si>
-  <si>
-    <t>060155</t>
-  </si>
-  <si>
-    <t>006101</t>
-  </si>
-  <si>
-    <t>110055</t>
-  </si>
-  <si>
-    <t>011100</t>
-  </si>
-  <si>
-    <t>031155</t>
-  </si>
-  <si>
-    <t>003111</t>
-  </si>
-  <si>
-    <t>020155</t>
-  </si>
-  <si>
-    <t>002101</t>
-  </si>
-  <si>
-    <t>100155</t>
-  </si>
-  <si>
-    <t>010101</t>
-  </si>
-  <si>
-    <t>140055</t>
-  </si>
-  <si>
-    <t>014100</t>
-  </si>
-  <si>
-    <t>011155</t>
-  </si>
-  <si>
-    <t>001111</t>
-  </si>
-  <si>
-    <t>150055</t>
-  </si>
-  <si>
-    <t>015100</t>
-  </si>
-  <si>
-    <t>150155</t>
-  </si>
-  <si>
-    <t>015101</t>
-  </si>
-  <si>
-    <t>120055</t>
-  </si>
-  <si>
-    <t>012100</t>
-  </si>
-  <si>
-    <t>090055</t>
-  </si>
-  <si>
-    <t>009100</t>
-  </si>
-  <si>
-    <t>100055</t>
-  </si>
-  <si>
-    <t>010100</t>
+    <t>071155</t>
+  </si>
+  <si>
+    <t>007111</t>
   </si>
 </sst>
 </file>
@@ -738,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>20</v>
@@ -747,7 +726,7 @@
         <v>21</v>
       </c>
       <c r="E2" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="F2" t="s">
         <v>22</v>
@@ -762,27 +741,27 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>25.14841821708632</v>
+        <v>-0.2355841087077853</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>4.10253215692481e-07</v>
+        <v>3.961271155137307e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.000640510121459826</v>
+        <v>0.0006293863007038926</v>
       </c>
       <c r="N2" t="n">
-        <v>0.918583791638107</v>
+        <v>0.9214897879023549</v>
       </c>
       <c r="O2" t="n">
-        <v>0.916338859422246</v>
+        <v>0.9193249842599566</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>70.11005272308589</v>
+        <v>82.41914944064861</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -791,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
@@ -800,7 +779,7 @@
         <v>25</v>
       </c>
       <c r="E3" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="F3" t="s">
         <v>22</v>
@@ -815,7 +794,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>4.183372031022521</v>
+        <v>0.3898447999842459</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -834,7 +813,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -858,7 +837,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.1894838801533005</v>
+        <v>0.1080287758212288</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -877,16 +856,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
@@ -895,13 +874,13 @@
         <v>31</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>-126.3605127722272</v>
+        <v>12.02720454819985</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -920,16 +899,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E6" t="n">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
@@ -938,13 +917,13 @@
         <v>33</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8050303892599686</v>
+        <v>-1.893888738058817</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -963,7 +942,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
         <v>34</v>
@@ -972,7 +951,7 @@
         <v>21</v>
       </c>
       <c r="E7" t="n">
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
@@ -987,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>7817.287754239687</v>
+        <v>0.2740487954780584</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -1006,16 +985,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
         <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8" t="n">
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
@@ -1024,13 +1003,13 @@
         <v>37</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>-1.651846613426542</v>
+        <v>4.890761543887946</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -1049,16 +1028,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
         <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E9" t="n">
-        <v>-9</v>
+        <v>-12</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
@@ -1073,7 +1052,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>-31069.76067590413</v>
+        <v>243385.4416883342</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -1092,16 +1071,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
         <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E10" t="n">
-        <v>-10</v>
+        <v>-13</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
@@ -1116,7 +1095,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>37660.96729096708</v>
+        <v>-342409.3194918453</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -1135,16 +1114,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
         <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E11" t="n">
-        <v>-13</v>
+        <v>-11</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
@@ -1159,7 +1138,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>-45075.54651901427</v>
+        <v>-65813.45473462634</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -1178,16 +1157,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
         <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E12" t="n">
-        <v>-15</v>
+        <v>-14</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
@@ -1202,7 +1181,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>41730.49699432005</v>
+        <v>172986.2126794903</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s"/>
@@ -1221,16 +1200,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
         <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E13" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="F13" t="s">
         <v>22</v>
@@ -1239,13 +1218,13 @@
         <v>47</v>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>-2.047504590589824</v>
+        <v>-1.122178099467419</v>
       </c>
       <c r="K13" t="s"/>
       <c r="L13" t="s"/>
@@ -1264,7 +1243,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
         <v>48</v>
@@ -1273,7 +1252,7 @@
         <v>28</v>
       </c>
       <c r="E14" t="n">
-        <v>-3</v>
+        <v>-9</v>
       </c>
       <c r="F14" t="s">
         <v>22</v>
@@ -1288,7 +1267,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9964716202521231</v>
+        <v>2072.163702587437</v>
       </c>
       <c r="K14" t="s"/>
       <c r="L14" t="s"/>
@@ -1307,7 +1286,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
         <v>50</v>
@@ -1316,7 +1295,7 @@
         <v>28</v>
       </c>
       <c r="E15" t="n">
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="F15" t="s">
         <v>22</v>
@@ -1331,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>4.470411137521296</v>
+        <v>-1.734612051921431</v>
       </c>
       <c r="K15" t="s"/>
       <c r="L15" t="s"/>
@@ -1350,16 +1329,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
         <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E16" t="n">
-        <v>-9</v>
+        <v>-10</v>
       </c>
       <c r="F16" t="s">
         <v>22</v>
@@ -1374,7 +1353,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>-4.350457393775287</v>
+        <v>-5.455840250942856</v>
       </c>
       <c r="K16" t="s"/>
       <c r="L16" t="s"/>
@@ -1477,10 +1456,10 @@
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E2" t="n">
         <v>-1</v>
@@ -1489,7 +1468,7 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="H2" t="n">
         <v>4</v>
@@ -1498,27 +1477,27 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.06362032609164128</v>
+        <v>0.06546461004438757</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>4.516274177880172e-07</v>
+        <v>4.52728059666309e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006720323041253428</v>
+        <v>0.0006728506964151179</v>
       </c>
       <c r="N2" t="n">
-        <v>0.910372934221837</v>
+        <v>0.9102717925763273</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9094004886618569</v>
+        <v>0.9092982496386383</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>123.5409025749788</v>
+        <v>163.4835533460796</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -1530,10 +1509,10 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E3" t="n">
         <v>-1</v>
@@ -1542,7 +1521,7 @@
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
@@ -1551,7 +1530,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.1235798910143497</v>
+        <v>-0.1257734835889515</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -1573,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -1585,7 +1564,7 @@
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -1594,7 +1573,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2407061125118002</v>
+        <v>0.2430792918765532</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -1616,7 +1595,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -1628,7 +1607,7 @@
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -1637,7 +1616,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>18542.50741821802</v>
+        <v>18633.84883451471</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -1656,22 +1635,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E6" t="n">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="H6" t="n">
         <v>4</v>
@@ -1680,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.5126707914553729</v>
+        <v>-0.2130147136372038</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -1699,22 +1678,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E7" t="n">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
@@ -1723,7 +1702,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>1.615740317288491</v>
+        <v>0.6505704290791839</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -1826,10 +1805,10 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E2" t="n">
         <v>-1</v>
@@ -1838,7 +1817,7 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H2" t="n">
         <v>4</v>
@@ -1847,27 +1826,27 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1180492058494783</v>
+        <v>-0.1192009039139875</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>4.737483193722048e-07</v>
+        <v>4.590980354514961e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006882937740327198</v>
+        <v>0.0006775677349545919</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9059829627026834</v>
+        <v>0.9090092984668207</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9051344334851986</v>
+        <v>0.9081880827490122</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>155.7047996632069</v>
+        <v>172.7966077316551</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -1879,10 +1858,10 @@
         <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E3" t="n">
         <v>-1</v>
@@ -1891,7 +1870,7 @@
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
@@ -1900,7 +1879,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.05760580975096601</v>
+        <v>0.05832803140710673</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -1922,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -1934,7 +1913,7 @@
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -1943,7 +1922,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2417634549877229</v>
+        <v>0.2441589103410505</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -1962,22 +1941,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5" t="n">
-        <v>-11</v>
+        <v>-15</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -1986,7 +1965,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>3207.557008277349</v>
+        <v>24860.95566165221</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -2005,22 +1984,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
       </c>
       <c r="E6" t="n">
-        <v>-10</v>
+        <v>-6</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -2029,7 +2008,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-1125.953776863294</v>
+        <v>-2.123857359213603</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -2042,666 +2021,6 @@
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="s"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:U5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:21">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-0.1330437449056491</v>
-      </c>
-      <c r="K2" t="s"/>
-      <c r="L2" t="n">
-        <v>6.380108479553946e-07</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.0007987558124704913</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.8733844802493367</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.8724719359628454</v>
-      </c>
-      <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
-      <c r="T2" t="n">
-        <v>400.1059086082269</v>
-      </c>
-      <c r="U2" t="s"/>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.06481007670697664</v>
-      </c>
-      <c r="K3" t="s"/>
-      <c r="L3" t="s"/>
-      <c r="M3" t="s"/>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s"/>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
-      <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.2711330996950717</v>
-      </c>
-      <c r="K4" t="s"/>
-      <c r="L4" t="s"/>
-      <c r="M4" t="s"/>
-      <c r="N4" t="s"/>
-      <c r="O4" t="s"/>
-      <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
-      <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
-        <v>87</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>13261.58163273845</v>
-      </c>
-      <c r="K5" t="s"/>
-      <c r="L5" t="s"/>
-      <c r="M5" t="s"/>
-      <c r="N5" t="s"/>
-      <c r="O5" t="s"/>
-      <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
-      <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:U4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:21">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-0.08178604998411067</v>
-      </c>
-      <c r="K2" t="s"/>
-      <c r="L2" t="n">
-        <v>1.193788623680534e-06</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.001092606344334744</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.7630884058725169</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.7618101059042032</v>
-      </c>
-      <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
-      <c r="T2" t="n">
-        <v>1230.69923236238</v>
-      </c>
-      <c r="U2" t="s"/>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.03965645331902426</v>
-      </c>
-      <c r="K3" t="s"/>
-      <c r="L3" t="s"/>
-      <c r="M3" t="s"/>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s"/>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
-      <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.1671374835779396</v>
-      </c>
-      <c r="K4" t="s"/>
-      <c r="L4" t="s"/>
-      <c r="M4" t="s"/>
-      <c r="N4" t="s"/>
-      <c r="O4" t="s"/>
-      <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
-      <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:U3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:21">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-0.01639581936878405</v>
-      </c>
-      <c r="K2" t="s"/>
-      <c r="L2" t="n">
-        <v>2.169253154244436e-06</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.001472838468483369</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.5695040037710654</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.5679582371777837</v>
-      </c>
-      <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
-      <c r="T2" t="n">
-        <v>2692.828918929596</v>
-      </c>
-      <c r="U2" t="s"/>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.003624188381264875</v>
-      </c>
-      <c r="K3" t="s"/>
-      <c r="L3" t="s"/>
-      <c r="M3" t="s"/>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s"/>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
-      <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -2789,13 +2108,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E2" t="n">
         <v>-2</v>
@@ -2807,33 +2126,33 @@
         <v>55</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2730485894264846</v>
+        <v>2.050598030981754</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>4.11775622093123e-07</v>
+        <v>4.018473456601406e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006416974537062797</v>
+        <v>0.0006339143046659703</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9182816646785</v>
+        <v>0.9203560697991154</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9161824780830854</v>
+        <v>0.918310170674689</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>71.44220331613201</v>
+        <v>90.40265256838265</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -2866,7 +2185,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>5.866366455688198</v>
+        <v>12.22045100035955</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -2888,10 +2207,10 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E4" t="n">
         <v>-1</v>
@@ -2900,7 +2219,7 @@
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H4" t="n">
         <v>4</v>
@@ -2909,7 +2228,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.1744060430388359</v>
+        <v>-0.1929756139488191</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -2928,22 +2247,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -2952,7 +2271,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6235727854177191</v>
+        <v>-5.442783033619207</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -2971,22 +2290,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E6" t="n">
-        <v>-8</v>
+        <v>-1</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H6" t="n">
         <v>4</v>
@@ -2995,7 +2314,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-6216.973175788297</v>
+        <v>0.1305975124399379</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -3014,7 +2333,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
         <v>58</v>
@@ -3023,7 +2342,7 @@
         <v>28</v>
       </c>
       <c r="E7" t="n">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
@@ -3038,7 +2357,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>2.100306015294768</v>
+        <v>-34922.92682131974</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -3057,22 +2376,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E8" t="n">
-        <v>-9</v>
+        <v>-11</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H8" t="n">
         <v>4</v>
@@ -3081,7 +2400,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>57180.97153913452</v>
+        <v>80833.21906837005</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -3100,22 +2419,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E9" t="n">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H9" t="n">
         <v>4</v>
@@ -3124,7 +2443,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>-206977.6074908198</v>
+        <v>5359.769024452959</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -3143,31 +2462,31 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E10" t="n">
-        <v>-2</v>
+        <v>-12</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.9989178729931751</v>
+        <v>-67553.8135298165</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -3186,16 +2505,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
         <v>60</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E11" t="n">
-        <v>-11</v>
+        <v>-15</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
@@ -3210,7 +2529,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>351105.2568579601</v>
+        <v>23623.2615668276</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -3229,7 +2548,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
         <v>62</v>
@@ -3238,7 +2557,7 @@
         <v>21</v>
       </c>
       <c r="E12" t="n">
-        <v>-12</v>
+        <v>-6</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
@@ -3253,7 +2572,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>-239936.9807211242</v>
+        <v>0.7580980602433556</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s"/>
@@ -3272,22 +2591,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E13" t="n">
-        <v>-15</v>
+        <v>-3</v>
       </c>
       <c r="F13" t="s">
         <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="H13" t="n">
         <v>4</v>
@@ -3296,7 +2615,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>59936.89401630154</v>
+        <v>-0.69995912729064</v>
       </c>
       <c r="K13" t="s"/>
       <c r="L13" t="s"/>
@@ -3318,10 +2637,10 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E14" t="n">
         <v>-4</v>
@@ -3330,7 +2649,7 @@
         <v>22</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="H14" t="n">
         <v>4</v>
@@ -3339,7 +2658,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>-2.616944404086098</v>
+        <v>-0.5373254130445275</v>
       </c>
       <c r="K14" t="s"/>
       <c r="L14" t="s"/>
@@ -3358,22 +2677,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E15" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F15" t="s">
         <v>22</v>
       </c>
       <c r="G15" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="H15" t="n">
         <v>4</v>
@@ -3382,7 +2701,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9283859902061522</v>
+        <v>0.1945650429843226</v>
       </c>
       <c r="K15" t="s"/>
       <c r="L15" t="s"/>
@@ -3485,10 +2804,10 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E2" t="n">
         <v>-1</v>
@@ -3497,7 +2816,7 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H2" t="n">
         <v>4</v>
@@ -3506,27 +2825,27 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1149274957739123</v>
+        <v>-0.1167308959164024</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>4.165490916720285e-07</v>
+        <v>4.061599481169702e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006454061447430049</v>
+        <v>0.0006373067927748536</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9173343526795208</v>
+        <v>0.9195013357495682</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9153661229814142</v>
+        <v>0.9175847008864626</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>77.55556692554656</v>
+        <v>96.23440709242738</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -3535,13 +2854,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E3" t="n">
         <v>-1</v>
@@ -3550,16 +2869,16 @@
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.354628399171098</v>
+        <v>0.1029004582156437</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -3578,22 +2897,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E4" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="F4" t="s">
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="H4" t="n">
         <v>4</v>
@@ -3602,7 +2921,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2455186781182365</v>
+        <v>-0.4649293873515697</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -3621,22 +2940,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5" t="n">
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -3645,7 +2964,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>40.29878266565132</v>
+        <v>8.403750770554227</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -3664,22 +2983,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
       </c>
       <c r="E6" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -3688,7 +3007,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.2944418596926055</v>
+        <v>-35.23008762254557</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -3707,31 +3026,31 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7" t="n">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>-41.52558066961594</v>
+        <v>43.96219698674722</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -3753,10 +3072,10 @@
         <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E8" t="n">
         <v>-9</v>
@@ -3765,7 +3084,7 @@
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H8" t="n">
         <v>4</v>
@@ -3774,7 +3093,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>3520.948166537204</v>
+        <v>1585.760167297887</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -3796,10 +3115,10 @@
         <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E9" t="n">
         <v>-11</v>
@@ -3808,7 +3127,7 @@
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="H9" t="n">
         <v>4</v>
@@ -3817,7 +3136,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>-66225.64566455792</v>
+        <v>-54084.41101748696</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -3839,10 +3158,10 @@
         <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E10" t="n">
         <v>-12</v>
@@ -3851,7 +3170,7 @@
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="H10" t="n">
         <v>4</v>
@@ -3860,7 +3179,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>152177.7759252065</v>
+        <v>204820.6042158115</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -3879,22 +3198,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E11" t="n">
-        <v>-14</v>
+        <v>-13</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="H11" t="n">
         <v>4</v>
@@ -3903,7 +3222,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>-294727.0360494276</v>
+        <v>-293675.783475204</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -3922,16 +3241,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
         <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E12" t="n">
-        <v>-15</v>
+        <v>-14</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
@@ -3946,7 +3265,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>226386.4331052324</v>
+        <v>150682.2559750151</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s"/>
@@ -3965,22 +3284,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E13" t="n">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="F13" t="s">
         <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="H13" t="n">
         <v>4</v>
@@ -3989,7 +3308,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9161130535358097</v>
+        <v>0.951167142666236</v>
       </c>
       <c r="K13" t="s"/>
       <c r="L13" t="s"/>
@@ -4011,10 +3330,10 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E14" t="n">
         <v>-6</v>
@@ -4023,7 +3342,7 @@
         <v>22</v>
       </c>
       <c r="G14" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="H14" t="n">
         <v>4</v>
@@ -4032,7 +3351,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.3645079599809833</v>
+        <v>-0.5809900796157308</v>
       </c>
       <c r="K14" t="s"/>
       <c r="L14" t="s"/>
@@ -4132,13 +3451,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E2" t="n">
         <v>-1</v>
@@ -4147,36 +3466,36 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2187147838258544</v>
+        <v>-0.1233318957341249</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>4.212857307960421e-07</v>
+        <v>4.080749738903548e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006490652746804763</v>
+        <v>0.0006388074623001478</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9163943498151803</v>
+        <v>0.919121788190836</v>
       </c>
       <c r="O2" t="n">
-        <v>0.914560222206007</v>
+        <v>0.9173474946959366</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>83.64038311498238</v>
+        <v>98.36353148390896</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -4185,7 +3504,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -4209,7 +3528,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.0920572590143359</v>
+        <v>0.128078072418401</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -4228,22 +3547,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4" t="n">
-        <v>-11</v>
+        <v>-3</v>
       </c>
       <c r="F4" t="s">
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -4252,7 +3571,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>427.0839046188928</v>
+        <v>6.998704516672253</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -4274,10 +3593,10 @@
         <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E5" t="n">
         <v>-2</v>
@@ -4286,7 +3605,7 @@
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="H5" t="n">
         <v>4</v>
@@ -4295,7 +3614,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4338179176648538</v>
+        <v>-0.1806759213988816</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -4314,31 +3633,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-1.037246230545187</v>
+        <v>-21.41688478798703</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -4357,31 +3676,31 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7" t="n">
-        <v>-10</v>
+        <v>-6</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>4153.312284521022</v>
+        <v>45.75959399004552</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -4400,22 +3719,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E8" t="n">
-        <v>-12</v>
+        <v>-10</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H8" t="n">
         <v>4</v>
@@ -4424,7 +3743,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>-140454.7074489246</v>
+        <v>9424.370990626514</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -4443,22 +3762,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
         <v>28</v>
       </c>
       <c r="E9" t="n">
-        <v>-2</v>
+        <v>-11</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="H9" t="n">
         <v>4</v>
@@ -4467,7 +3786,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.04284341524629554</v>
+        <v>-67390.57715274031</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -4486,22 +3805,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E10" t="n">
-        <v>-13</v>
+        <v>-12</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H10" t="n">
         <v>4</v>
@@ -4510,7 +3829,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>528553.8504342264</v>
+        <v>173103.099530527</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -4529,22 +3848,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E11" t="n">
-        <v>-14</v>
+        <v>-13</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="H11" t="n">
         <v>4</v>
@@ -4553,7 +3872,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>-752827.7451916123</v>
+        <v>-167842.8922914388</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -4575,10 +3894,10 @@
         <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E12" t="n">
         <v>-15</v>
@@ -4587,7 +3906,7 @@
         <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="H12" t="n">
         <v>4</v>
@@ -4596,7 +3915,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>383727.4982590555</v>
+        <v>63799.60776709238</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s"/>
@@ -4615,22 +3934,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E13" t="n">
-        <v>-10</v>
+        <v>-13</v>
       </c>
       <c r="F13" t="s">
         <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="H13" t="n">
         <v>4</v>
@@ -4639,7 +3958,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>0.588973393663764</v>
+        <v>1.485164125799201</v>
       </c>
       <c r="K13" t="s"/>
       <c r="L13" t="s"/>
@@ -4742,10 +4061,10 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E2" t="n">
         <v>-1</v>
@@ -4754,7 +4073,7 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H2" t="n">
         <v>4</v>
@@ -4763,27 +4082,27 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1185576492299926</v>
+        <v>-0.1175493870999243</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>4.266787346670888e-07</v>
+        <v>4.174958145820169e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006532065023153772</v>
+        <v>0.0006461391603842139</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9153240890346025</v>
+        <v>0.9172546294635641</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9136243900918664</v>
+        <v>0.915593682244767</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>90.7177892981282</v>
+        <v>112.1928039768166</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -4792,31 +4111,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E3" t="n">
-        <v>-14</v>
+        <v>-1</v>
       </c>
       <c r="F3" t="s">
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>8411.462508401297</v>
+        <v>0.1392437637984658</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -4835,22 +4154,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="F4" t="s">
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -4859,7 +4178,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2938005880341734</v>
+        <v>34.9352660913471</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -4878,31 +4197,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5" t="n">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4995266339274167</v>
+        <v>-161.3222063336674</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -4921,31 +4240,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6" t="n">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-1.237754616321126</v>
+        <v>204.8343572297789</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -4964,22 +4283,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E7" t="n">
-        <v>-9</v>
+        <v>-2</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
@@ -4988,7 +4307,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>754.4479065076824</v>
+        <v>-0.2208545400265515</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -5007,22 +4326,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E8" t="n">
-        <v>-12</v>
+        <v>-9</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H8" t="n">
         <v>4</v>
@@ -5031,7 +4350,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>-89379.94414198211</v>
+        <v>1062.581495993933</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -5050,16 +4369,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
         <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E9" t="n">
-        <v>-13</v>
+        <v>-11</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
@@ -5074,7 +4393,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>377683.8132820529</v>
+        <v>-33845.97930479764</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -5093,22 +4412,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E10" t="n">
-        <v>-14</v>
+        <v>-12</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="H10" t="n">
         <v>4</v>
@@ -5117,7 +4436,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>-573050.4886269153</v>
+        <v>115450.8387058363</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -5136,22 +4455,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E11" t="n">
-        <v>-15</v>
+        <v>-13</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H11" t="n">
         <v>4</v>
@@ -5160,7 +4479,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>304001.9521394786</v>
+        <v>-125532.732551577</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -5179,31 +4498,31 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E12" t="n">
-        <v>-2</v>
+        <v>-15</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.1281720230665542</v>
+        <v>52785.25623512986</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s"/>
@@ -5303,13 +4622,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E2" t="n">
         <v>-1</v>
@@ -5318,36 +4637,36 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.063065115645154</v>
+        <v>0.2488790984689297</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>4.361739935542202e-07</v>
+        <v>4.266384839736981e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.000660434700446774</v>
+        <v>0.0006531756915055077</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9134397211699901</v>
+        <v>0.9154426027555498</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9118630312095163</v>
+        <v>0.9139023951554688</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>103.8798924991666</v>
+        <v>125.641522227732</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -5359,10 +4678,10 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E3" t="n">
         <v>-1</v>
@@ -5371,7 +4690,7 @@
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
@@ -5380,7 +4699,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.1218062659508391</v>
+        <v>-0.119474581759092</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -5399,13 +4718,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E4" t="n">
         <v>-1</v>
@@ -5414,16 +4733,16 @@
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2369201247918313</v>
+        <v>0.05731877214718421</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -5442,22 +4761,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5" t="n">
-        <v>-15</v>
+        <v>-12</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -5466,7 +4785,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>18689.69040624559</v>
+        <v>1811.223271367975</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -5485,31 +4804,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6" t="n">
-        <v>-10</v>
+        <v>-6</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-11659.88643401257</v>
+        <v>-3.579243943587279</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -5528,22 +4847,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E7" t="n">
-        <v>-11</v>
+        <v>-14</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
@@ -5552,7 +4871,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>128673.0052870549</v>
+        <v>-265477.7469571107</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -5571,22 +4890,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E8" t="n">
-        <v>-12</v>
+        <v>-15</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H8" t="n">
         <v>4</v>
@@ -5595,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>-566795.2917181368</v>
+        <v>135325.7835002684</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -5617,10 +4936,10 @@
         <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E9" t="n">
         <v>-13</v>
@@ -5629,7 +4948,7 @@
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H9" t="n">
         <v>4</v>
@@ -5638,7 +4957,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>1242707.144930806</v>
+        <v>194238.0732980465</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -5657,22 +4976,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E10" t="n">
-        <v>-14</v>
+        <v>-12</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="H10" t="n">
         <v>4</v>
@@ -5681,7 +5000,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>-1354512.569391937</v>
+        <v>-62782.80487537311</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -5700,22 +5019,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E11" t="n">
-        <v>-15</v>
+        <v>-11</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H11" t="n">
         <v>4</v>
@@ -5724,7 +5043,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>586858.4340424227</v>
+        <v>7559.590537023801</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -5827,10 +5146,10 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E2" t="n">
         <v>-1</v>
@@ -5839,7 +5158,7 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H2" t="n">
         <v>4</v>
@@ -5848,27 +5167,27 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1234123654557941</v>
+        <v>-0.1247174651819042</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>4.404521695890718e-07</v>
+        <v>4.318959875138281e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006636657062023559</v>
+        <v>0.0006571879392638214</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9125907019347004</v>
+        <v>0.9144005945165924</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9111603679663591</v>
+        <v>0.9129998769723184</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>109.3775077593128</v>
+        <v>133.0694526373638</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -5880,7 +5199,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
@@ -5892,7 +5211,7 @@
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -5901,7 +5220,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2468648590965775</v>
+        <v>0.248755770811089</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -5923,10 +5242,10 @@
         <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E4" t="n">
         <v>-1</v>
@@ -5935,7 +5254,7 @@
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="H4" t="n">
         <v>4</v>
@@ -5944,7 +5263,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.06174777789672581</v>
+        <v>0.06260763819333676</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -5963,22 +5282,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5" t="n">
-        <v>-11</v>
+        <v>-14</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -5987,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>791.0578914444695</v>
+        <v>7488.737460600647</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -6006,31 +5325,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E6" t="n">
-        <v>-8</v>
+        <v>-11</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-27.11523530663541</v>
+        <v>-202.2963179463952</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -6049,22 +5368,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E7" t="n">
-        <v>-11</v>
+        <v>-12</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
@@ -6073,7 +5392,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>-76.76751682556223</v>
+        <v>741.6812746819542</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -6095,10 +5414,10 @@
         <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E8" t="n">
         <v>-13</v>
@@ -6107,7 +5426,7 @@
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H8" t="n">
         <v>4</v>
@@ -6116,7 +5435,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>740.9590333732299</v>
+        <v>-679.519133627817</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -6135,31 +5454,31 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9" t="n">
-        <v>-14</v>
+        <v>-6</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>-885.5963334224866</v>
+        <v>-1.047185312913853</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -6178,22 +5497,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E10" t="n">
-        <v>-15</v>
+        <v>-12</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H10" t="n">
         <v>4</v>
@@ -6202,7 +5521,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>2.473177110864709</v>
+        <v>0.7071185562876975</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -6305,10 +5624,10 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E2" t="n">
         <v>-1</v>
@@ -6317,7 +5636,7 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H2" t="n">
         <v>4</v>
@@ -6326,27 +5645,27 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1207003635927784</v>
+        <v>-0.1206661699780055</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>4.448937991323391e-07</v>
+        <v>4.377239611762526e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006670035975407772</v>
+        <v>0.0006616071048411229</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9117092447698844</v>
+        <v>0.9132455222420195</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9104273463273418</v>
+        <v>0.9119859290985279</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>115.1402556914103</v>
+        <v>141.4204954967044</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -6358,7 +5677,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
@@ -6370,7 +5689,7 @@
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -6379,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2413958706093792</v>
+        <v>0.2412396441148678</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -6401,10 +5720,10 @@
         <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E4" t="n">
         <v>-1</v>
@@ -6413,7 +5732,7 @@
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="H4" t="n">
         <v>4</v>
@@ -6422,7 +5741,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.06036745917456224</v>
+        <v>0.06038671519072888</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -6441,22 +5760,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5" t="n">
-        <v>-12</v>
+        <v>-15</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -6465,7 +5784,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>2413.256625665128</v>
+        <v>23756.8007954995</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -6484,22 +5803,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
       </c>
       <c r="E6" t="n">
-        <v>-9</v>
+        <v>-7</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -6508,7 +5827,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-84.78131673296592</v>
+        <v>-3.696732313085361</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -6527,22 +5846,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E7" t="n">
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
@@ -6551,7 +5870,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>-17.32817701588279</v>
+        <v>-176.4386206290987</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -6570,22 +5889,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E8" t="n">
-        <v>-13</v>
+        <v>-12</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H8" t="n">
         <v>4</v>
@@ -6594,7 +5913,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>394.1926983802315</v>
+        <v>650.4456393359866</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -6613,22 +5932,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E9" t="n">
-        <v>-14</v>
+        <v>-13</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="H9" t="n">
         <v>4</v>
@@ -6637,7 +5956,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>-526.6824215557701</v>
+        <v>-598.5397916282579</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -6737,7 +6056,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -6761,27 +6080,27 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1207615197413974</v>
+        <v>0.06558238253940964</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>4.473143351554926e-07</v>
+        <v>4.400364945781483e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006688156211957767</v>
+        <v>0.0006633524663240111</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9112288807954645</v>
+        <v>0.9127871908611186</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9101031600809142</v>
+        <v>0.9116812313249372</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>117.9270349161323</v>
+        <v>144.2898948556795</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -6790,13 +6109,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3" t="n">
         <v>-1</v>
@@ -6805,16 +6124,16 @@
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.241382258391295</v>
+        <v>-0.1271897419267766</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -6833,13 +6152,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4" t="n">
         <v>-1</v>
@@ -6848,16 +6167,16 @@
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.06048098816755723</v>
+        <v>0.2477283450274738</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -6876,22 +6195,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5" t="n">
-        <v>-12</v>
+        <v>-15</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -6900,7 +6219,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>2429.988939509225</v>
+        <v>15332.7992918585</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -6919,31 +6238,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E6" t="n">
-        <v>-9</v>
+        <v>-5</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-86.57241930094551</v>
+        <v>-0.1474227453947976</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -6962,22 +6281,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E7" t="n">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
@@ -6986,7 +6305,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>5.672469326647188</v>
+        <v>0.8080346219584122</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -7005,22 +6324,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8" t="n">
-        <v>-8</v>
+        <v>-13</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="H8" t="n">
         <v>4</v>
@@ -7029,7 +6348,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>-3.102586425048821</v>
+        <v>1.355475279555793</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
